--- a/data/trans_camb/IP16A09-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP16A09-Habitat-trans_camb.xlsx
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -611,22 +611,22 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,46</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,72</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -639,7 +639,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -649,22 +649,22 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 6,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,44; 1,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 4,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 0,99</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -677,7 +677,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -687,22 +687,22 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>22,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-57,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>72,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-56,68%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,44</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,54</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-3,09</t>
+          <t>-1,46</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,47</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-3,3</t>
+          <t>-0,72</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 7,14</t>
+          <t>0,0; 6,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-12,11; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,4; 3,09</t>
+          <t>-3,84; 6,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-15,5; 0,0</t>
+          <t>-7,44; 1,06</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,77; 3,0</t>
+          <t>-1,28; 4,57</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,97; -1,0</t>
+          <t>-3,68; 0,99</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>20,07%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-49,84%</t>
+          <t>22,18%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-57,99%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-14,27%</t>
+          <t>72,51%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-56,68%</t>
         </is>
       </c>
     </row>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 315,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,1</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,13</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,38</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,57</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,3</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,83</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,91; 2,5</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,18; 14,78</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,09; -1,09</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,9; 0,94</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,3; -0,57</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,11; 4,91</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-56,27%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>56,78%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-76,37%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-69,03%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-67,99%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,52%</t>
         </is>
       </c>
     </row>
@@ -1188,12 +1188,12 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 947,12</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 14,04</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1203,19 +1203,19 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-94,59; 2,96</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,33; 137,08</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-3,1</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>3,13</t>
+          <t>-3,44</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-8,38</t>
+          <t>-1,54</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-7,57</t>
+          <t>-3,09</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-5,3</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-1,83</t>
+          <t>-3,3</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-11,91; 2,5</t>
+          <t>-6,0; 7,14</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 14,78</t>
+          <t>-12,11; 0,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-21,09; -1,09</t>
+          <t>-12,4; 3,09</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-19,9; 0,94</t>
+          <t>-15,5; 0,0</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-12,3; -0,57</t>
+          <t>-5,77; 3,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-9,11; 4,91</t>
+          <t>-8,97; -1,0</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-56,27%</t>
+          <t>20,07%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>56,78%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-76,37%</t>
+          <t>-49,84%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-69,03%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-67,99%</t>
+          <t>-14,27%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-23,52%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -1344,12 +1344,12 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 947,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 14,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1359,12 +1359,12 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-94,59; 2,96</t>
+          <t>-100,0; 315,66</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-81,33; 137,08</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16A09-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP16A09-Habitat-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -795,7 +795,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,08</t>
+          <t>0,0; 14,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -805,22 +805,22 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,11; 0,0</t>
+          <t>-13,2; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,99; 4,7</t>
+          <t>-7,87; 4,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 6,08</t>
+          <t>-2,57; 5,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 2,36</t>
+          <t>-3,88; 2,37</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,65</t>
+          <t>0,0; 7,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -961,22 +961,22 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 6,09</t>
+          <t>-3,78; 6,75</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,44; 1,06</t>
+          <t>-7,64; 1,08</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 4,57</t>
+          <t>-1,63; 4,44</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 0,99</t>
+          <t>-3,78; 0,56</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-11,91; 2,5</t>
+          <t>-11,82; 2,28</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 14,78</t>
+          <t>-5,09; 15,71</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-21,09; -1,09</t>
+          <t>-19,36; -0,36</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-19,9; 0,94</t>
+          <t>-19,48; 1,05</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-12,3; -0,57</t>
+          <t>-11,05; 0,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-9,11; 4,91</t>
+          <t>-8,38; 5,72</t>
         </is>
       </c>
     </row>
@@ -1188,27 +1188,27 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 947,12</t>
+          <t>-76,18; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 14,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 151,42</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-94,59; 2,96</t>
+          <t>-92,95; 23,23</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-81,33; 137,08</t>
+          <t>-75,67; 196,52</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 7,14</t>
+          <t>-6,95; 6,8</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-12,11; 0,0</t>
+          <t>-10,43; 0,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-12,4; 3,09</t>
+          <t>-12,32; 3,08</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-15,5; 0,0</t>
+          <t>-15,4; 0,0</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,77; 3,0</t>
+          <t>-5,42; 3,59</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-8,97; -1,0</t>
+          <t>-8,84; -0,99</t>
         </is>
       </c>
     </row>
@@ -1359,7 +1359,7 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 315,66</t>
+          <t>-89,48; 470,21</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 3,39</t>
+          <t>-1,98; 3,2</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 2,4</t>
+          <t>-3,19; 2,38</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-5,45; 0,45</t>
+          <t>-5,8; 0,4</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 0,06</t>
+          <t>-6,16; -0,04</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 1,4</t>
+          <t>-2,88; 1,39</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 0,33</t>
+          <t>-3,6; 0,3</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,39 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-62,65; 412,25</t>
+          <t>-62,6; 374,1</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,87; 322,84</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-87,28; 40,28</t>
+          <t>-89,4; 42,81</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-91,77; 34,91</t>
+          <t>-92,82; 13,27</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-65,8; 67,46</t>
+          <t>-67,57; 73,26</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-81,86; 29,26</t>
+          <t>-80,78; 29,87</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16A09-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP16A09-Habitat-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,51</t>
+          <t>0,0; 14,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -805,22 +805,22 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,2; 0,0</t>
+          <t>-14,57; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,87; 4,82</t>
+          <t>-8,09; 4,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 5,83</t>
+          <t>-2,56; 5,68</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 2,37</t>
+          <t>-4,0; 2,5</t>
         </is>
       </c>
     </row>
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,04</t>
+          <t>0,0; 6,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -961,22 +961,22 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 6,75</t>
+          <t>-4,47; 6,24</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,64; 1,08</t>
+          <t>-6,39; 1,08</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 4,44</t>
+          <t>-1,87; 4,14</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 0,56</t>
+          <t>-3,18; 1,09</t>
         </is>
       </c>
     </row>
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-11,82; 2,28</t>
+          <t>-11,47; 2,45</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 15,71</t>
+          <t>-6,15; 13,86</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-19,36; -0,36</t>
+          <t>-20,07; -0,07</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-19,48; 1,05</t>
+          <t>-19,32; 1,03</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-11,05; 0,0</t>
+          <t>-13,15; -0,15</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,38; 5,72</t>
+          <t>-9,03; 5,55</t>
         </is>
       </c>
     </row>
@@ -1188,27 +1188,27 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-76,18; —</t>
+          <t>-100,0; 861,41</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 83,75</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 151,42</t>
+          <t>-100,0; 110,5</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-92,95; 23,23</t>
+          <t>-93,85; 34,43</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-75,67; 196,52</t>
+          <t>-76,91; 184,26</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-6,95; 6,8</t>
+          <t>-5,72; 6,96</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-10,43; 0,0</t>
+          <t>-12,15; 0,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-12,32; 3,08</t>
+          <t>-13,68; 3,08</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-15,4; 0,0</t>
+          <t>-15,65; 0,0</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 3,59</t>
+          <t>-5,93; 3,93</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-8,84; -0,99</t>
+          <t>-8,97; -1,01</t>
         </is>
       </c>
     </row>
@@ -1359,7 +1359,7 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-89,48; 470,21</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 3,2</t>
+          <t>-2,14; 3,26</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 2,38</t>
+          <t>-3,15; 2,44</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 0,4</t>
+          <t>-5,85; 0,62</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-6,16; -0,04</t>
+          <t>-5,85; -0,05</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 1,39</t>
+          <t>-2,88; 1,18</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 0,3</t>
+          <t>-3,7; 0,39</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-62,6; 374,1</t>
+          <t>-67,28; 438,82</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-86,87; 322,84</t>
+          <t>-85,8; 318,14</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-89,4; 42,81</t>
+          <t>-88,54; 69,0</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-92,82; 13,27</t>
+          <t>-92,37; 23,29</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-67,57; 73,26</t>
+          <t>-65,16; 67,38</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-80,78; 29,87</t>
+          <t>-79,81; 34,69</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16A09-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP16A09-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,13 +527,13 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="F1" s="3" t="n"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>-1,82</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>-0,08</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>4,16</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,05</t>
         </is>
       </c>
     </row>
@@ -639,17 +639,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,01; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,64; 3,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 13,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -659,12 +659,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,95; 5,7</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,98; 1,9</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-4,15%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>109,61%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,26%</t>
         </is>
       </c>
     </row>
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,46</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>-1,46</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1,27</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-2,58</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-0,29</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>-0,72</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,91</t>
+          <t>-3,84; 6,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,44; 1,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-14,57; 0,0</t>
+          <t>0,0; 6,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,09; 4,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 5,68</t>
+          <t>-1,28; 4,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 2,5</t>
+          <t>-3,68; 0,99</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>22,18%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>-57,99%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-11,19%</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>84,27%</t>
+          <t>72,51%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-9,4%</t>
+          <t>-56,68%</t>
         </is>
       </c>
     </row>
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>-8,38</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,57</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>-3,1</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,46</t>
+          <t>3,13</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>-5,3</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,72</t>
+          <t>-1,83</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,43</t>
+          <t>-21,09; -1,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,9; 0,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 6,24</t>
+          <t>-11,91; 2,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,39; 1,08</t>
+          <t>-6,18; 14,78</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 4,14</t>
+          <t>-12,3; -0,57</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 1,09</t>
+          <t>-9,11; 4,91</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-76,37%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-69,03%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>22,18%</t>
+          <t>-56,27%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-57,99%</t>
+          <t>56,78%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>72,51%</t>
+          <t>-67,99%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-56,68%</t>
+          <t>-23,52%</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 14,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1042,24 +1042,24 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 947,12</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-94,59; 2,96</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,33; 137,08</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-3,1</t>
+          <t>-1,54</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,13</t>
+          <t>-3,09</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-8,38</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-7,57</t>
+          <t>-3,44</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-5,3</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,83</t>
+          <t>-3,3</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-11,47; 2,45</t>
+          <t>-12,4; 3,09</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,15; 13,86</t>
+          <t>-15,5; 0,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-20,07; -0,07</t>
+          <t>-6,0; 7,14</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-19,32; 1,03</t>
+          <t>-12,11; 0,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-13,15; -0,15</t>
+          <t>-5,77; 3,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-9,03; 5,55</t>
+          <t>-8,97; -1,0</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-56,27%</t>
+          <t>-49,84%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>56,78%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-76,37%</t>
+          <t>20,07%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-69,03%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-67,99%</t>
+          <t>-14,27%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-23,52%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -1188,34 +1188,34 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 861,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 83,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 110,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-93,85; 34,43</t>
+          <t>-100,0; 315,66</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-76,91; 184,26</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>-2,28</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-3,44</t>
+          <t>-2,75</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-1,54</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-3,09</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-0,47</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-3,3</t>
+          <t>-1,51</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 6,96</t>
+          <t>-5,45; 0,45</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-12,15; 0,0</t>
+          <t>-6,23; 0,06</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-13,68; 3,08</t>
+          <t>-2,21; 3,39</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-15,65; 0,0</t>
+          <t>-3,09; 2,4</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 3,93</t>
+          <t>-2,98; 1,4</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-8,97; -1,01</t>
+          <t>-3,62; 0,33</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>20,07%</t>
+          <t>-54,86%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-66,23%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-49,84%</t>
+          <t>28,23%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-16,9%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-14,27%</t>
+          <t>-23,71%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-48,07%</t>
         </is>
       </c>
     </row>
@@ -1339,17 +1339,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,28; 40,28</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,77; 34,91</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,65; 412,25</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1359,180 +1359,24 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-65,8; 67,46</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,86; 29,26</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>0,64</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-0,38</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-2,28</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>-2,75</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>-0,75</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-1,51</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-2,14; 3,26</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-3,15; 2,44</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-5,85; 0,62</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-5,85; -0,05</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-2,88; 1,18</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-3,7; 0,39</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>28,23%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-16,9%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-54,86%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>-66,23%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>-23,71%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-48,07%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-67,28; 438,82</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-85,8; 318,14</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-88,54; 69,0</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-92,37; 23,29</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-65,16; 67,38</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-79,81; 34,69</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
@@ -1541,7 +1385,6 @@
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
